--- a/tmp/look_me.xlsx
+++ b/tmp/look_me.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Hello</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +59,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,34 +382,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="1" max="3" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
